--- a/CVX_Kenya/Interventions/Pulping_machines.xlsx
+++ b/CVX_Kenya/Interventions/Pulping_machines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB52F5CF-4C9F-4DAB-AF40-9954EB1762E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81486A8C-C450-473F-BC5C-E141B41C53A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13395" yWindow="-16935" windowWidth="13830" windowHeight="7170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1321,16 +1321,16 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1359,19 +1359,19 @@
       </c>
       <c r="E2" s="33">
         <f>main!C29</f>
-        <v>-2.9750000000000002E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-3.346875E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1392,15 +1392,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1.085</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1432,16 +1432,16 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1469,20 +1469,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1526,13 +1526,13 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C26</f>
-        <v>-7.0000000000000007E-5</v>
+        <v>-7.8750000000000003E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1553,23 +1553,23 @@
       </c>
       <c r="G3" s="5">
         <f>main!C27</f>
-        <v>7.0133396666666667E-2</v>
+        <v>7.8900071250000009E-2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1617,17 +1617,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1671,16 +1671,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1722,14 +1722,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2281,87 +2281,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2376,21 +2376,21 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>172</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
@@ -2445,13 +2445,13 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" s="17" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="24">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>225</v>
@@ -2460,7 +2460,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
@@ -2475,7 +2475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
       <c r="B6" s="17" t="s">
         <v>191</v>
@@ -2488,7 +2488,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="17" t="s">
         <v>194</v>
@@ -2503,7 +2503,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
       <c r="B8" s="17" t="s">
         <v>198</v>
@@ -2518,7 +2518,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="17" t="s">
         <v>201</v>
@@ -2531,7 +2531,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="17" t="s">
         <v>200</v>
@@ -2546,7 +2546,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
       <c r="B11" s="17" t="s">
         <v>207</v>
@@ -2561,7 +2561,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
       <c r="B12" s="17" t="s">
         <v>209</v>
@@ -2576,7 +2576,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
       <c r="B13" s="17" t="s">
         <v>210</v>
@@ -2593,7 +2593,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="17" t="s">
         <v>186</v>
@@ -2606,7 +2606,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
       <c r="B15" s="17" t="s">
         <v>231</v>
@@ -2621,7 +2621,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="30" t="s">
         <v>230</v>
@@ -2634,7 +2634,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>180</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="16" t="s">
         <v>228</v>
@@ -2662,7 +2662,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>181</v>
       </c>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C19" s="27">
         <f>C8*1000*C9/C20/C10</f>
-        <v>27.3247</v>
+        <v>30.740287500000001</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27" t="s">
@@ -2680,42 +2680,42 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="37"/>
       <c r="B20" s="29" t="s">
         <v>229</v>
       </c>
       <c r="C20" s="27">
         <f>C5/C4</f>
-        <v>2000</v>
+        <v>1777.7777777777778</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
       <c r="B21" s="29" t="s">
         <v>185</v>
       </c>
       <c r="C21" s="27">
         <f>C18*C16/C20</f>
-        <v>7.0000000000000007E-5</v>
+        <v>7.8750000000000003E-5</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
       <c r="B22" s="22" t="s">
         <v>204</v>
       </c>
       <c r="C22" s="32">
         <f>C19*C7/C17</f>
-        <v>100.19056666666668</v>
+        <v>112.71438750000002</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="27" t="s">
@@ -2724,14 +2724,14 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
       <c r="B23" s="22" t="s">
         <v>206</v>
       </c>
       <c r="C23" s="32">
         <f>C22*3600/1000*C16/C11/C12</f>
-        <v>70.13339666666667</v>
+        <v>78.900071250000011</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
@@ -2740,7 +2740,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>182</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="34"/>
       <c r="B25" s="19" t="s">
         <v>184</v>
@@ -2778,14 +2778,14 @@
       </c>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="34"/>
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="26">
         <f>C21</f>
-        <v>7.0000000000000007E-5</v>
+        <v>7.8750000000000003E-5</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
@@ -2796,14 +2796,14 @@
       </c>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="19" t="s">
         <v>192</v>
       </c>
       <c r="C27" s="31">
         <f>C23/1000</f>
-        <v>7.0133396666666667E-2</v>
+        <v>7.8900071250000009E-2</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26" t="s">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
       <c r="B28" s="19" t="s">
         <v>233</v>
@@ -2832,14 +2832,14 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="19" t="s">
         <v>193</v>
       </c>
       <c r="C29" s="31">
         <f>C14*C16/C20</f>
-        <v>-2.9750000000000002E-3</v>
+        <v>-3.346875E-3</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
@@ -2850,12 +2850,12 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>218</v>
       </c>

--- a/CVX_Kenya/Interventions/Pulping_machines.xlsx
+++ b/CVX_Kenya/Interventions/Pulping_machines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81486A8C-C450-473F-BC5C-E141B41C53A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8142B-667C-4676-8A33-C3FF63C8ECFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13395" yWindow="-16935" windowWidth="13830" windowHeight="7170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -752,7 +752,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,6 +813,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -922,10 +933,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1001,9 +1013,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1359,7 +1390,7 @@
       </c>
       <c r="E2" s="33">
         <f>main!C29</f>
-        <v>-3.346875E-3</v>
+        <v>-2.8687499999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1417,7 +1448,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C24</f>
-        <v>1.085</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,7 +1460,7 @@
       </c>
       <c r="C3" s="1">
         <f>main!C25</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,7 +1557,7 @@
       </c>
       <c r="G2" s="5">
         <f>-main!C26</f>
-        <v>-7.8750000000000003E-5</v>
+        <v>-6.7500000000000001E-5</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>222</v>
@@ -1553,7 +1584,7 @@
       </c>
       <c r="G3" s="5">
         <f>main!C27</f>
-        <v>7.8900071250000009E-2</v>
+        <v>6.7628632499999994E-2</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>222</v>
@@ -1665,7 +1696,7 @@
       </c>
       <c r="F2" s="2">
         <f>main!C28</f>
-        <v>0.1085</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
@@ -2376,7 +2407,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,7 +2511,7 @@
       <c r="B6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="39">
         <v>8.3479305095333606E-2</v>
       </c>
       <c r="D6" s="24"/>
@@ -2627,7 +2658,7 @@
         <v>230</v>
       </c>
       <c r="C16" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -2654,7 +2685,7 @@
       <c r="B18" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="42">
         <v>0.02</v>
       </c>
       <c r="D18" s="25"/>
@@ -2669,7 +2700,7 @@
       <c r="B19" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="40">
         <f>C8*1000*C9/C20/C10</f>
         <v>30.740287500000001</v>
       </c>
@@ -2685,7 +2716,7 @@
       <c r="B20" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="40">
         <f>C5/C4</f>
         <v>1777.7777777777778</v>
       </c>
@@ -2699,9 +2730,9 @@
       <c r="B21" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="41">
         <f>C18*C16/C20</f>
-        <v>7.8750000000000003E-5</v>
+        <v>6.7500000000000001E-5</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -2731,7 +2762,7 @@
       </c>
       <c r="C23" s="32">
         <f>C22*3600/1000*C16/C11/C12</f>
-        <v>78.900071250000011</v>
+        <v>67.628632499999995</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="27" t="s">
@@ -2749,7 +2780,7 @@
       </c>
       <c r="C24" s="26">
         <f>C16*C2/1000</f>
-        <v>1.085</v>
+        <v>0.93</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26" t="s">
@@ -2767,7 +2798,7 @@
       </c>
       <c r="C25" s="26">
         <f>C16*C3/1000</f>
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26" t="s">
@@ -2783,9 +2814,9 @@
       <c r="B26" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="44">
         <f>C21</f>
-        <v>7.8750000000000003E-5</v>
+        <v>6.7500000000000001E-5</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="26" t="s">
@@ -2803,7 +2834,7 @@
       </c>
       <c r="C27" s="31">
         <f>C23/1000</f>
-        <v>7.8900071250000009E-2</v>
+        <v>6.7628632499999994E-2</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26" t="s">
@@ -2821,7 +2852,7 @@
       </c>
       <c r="C28" s="31">
         <f>C24/C15</f>
-        <v>0.1085</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26" t="s">
@@ -2837,9 +2868,9 @@
       <c r="B29" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="43">
         <f>C14*C16/C20</f>
-        <v>-3.346875E-3</v>
+        <v>-2.8687499999999998E-3</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">

--- a/CVX_Kenya/Interventions/Pulping_machines.xlsx
+++ b/CVX_Kenya/Interventions/Pulping_machines.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE8142B-667C-4676-8A33-C3FF63C8ECFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79CE8FF-922B-44B7-BA1C-E6F7A6416A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="-7875" windowWidth="13830" windowHeight="7170" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
     <sheet name="Y" sheetId="1" r:id="rId2"/>
     <sheet name="Z" sheetId="4" r:id="rId3"/>
     <sheet name="VA" sheetId="5" r:id="rId4"/>
-    <sheet name="Indeces" sheetId="8" r:id="rId5"/>
-    <sheet name="main" sheetId="9" r:id="rId6"/>
+    <sheet name="UL" sheetId="10" r:id="rId5"/>
+    <sheet name="Indeces" sheetId="8" r:id="rId6"/>
+    <sheet name="main" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="245">
   <si>
     <t>level_row</t>
   </si>
@@ -691,18 +692,9 @@
     <t>MSh</t>
   </si>
   <si>
-    <t>Z***</t>
-  </si>
-  <si>
-    <t>*** We have to aslo define a shock on the supply-use matrix directly for the options which had a zero initial value like petroleum!</t>
-  </si>
-  <si>
     <t>Absolute</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>Aggregated</t>
   </si>
   <si>
@@ -746,6 +738,42 @@
   </si>
   <si>
     <t>WFN: Total water footprint (Mm3/yr) - Green</t>
+  </si>
+  <si>
+    <t>Useful life</t>
+  </si>
+  <si>
+    <t>Increase in Residential CO2 emissions</t>
+  </si>
+  <si>
+    <t>Increase in the emission of CO2</t>
+  </si>
+  <si>
+    <t>Carbon intensity of electricity production from heavy fuel oil</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/co2-emission-fuels-d_1085.html</t>
+  </si>
+  <si>
+    <t>kgCO2</t>
+  </si>
+  <si>
+    <t>Residential</t>
+  </si>
+  <si>
+    <t>https://www.cal-ea.com/mini_eco_pulper.html &amp; https://italian.alibaba.com/product-detail/mini-eco-pulper-for-coffee-135021838.html</t>
+  </si>
+  <si>
+    <t>Maintenance expenses per machine per year</t>
+  </si>
+  <si>
+    <t>Increase in the use of oter services by High Rainfall</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -753,10 +781,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,8 +852,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,6 +914,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,11 +988,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -988,7 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -997,6 +1052,24 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1013,26 +1086,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1349,7 +1419,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1388,13 +1458,28 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="33">
-        <f>main!C29</f>
+      <c r="E2" s="32">
+        <f>main!C34</f>
         <v>-2.8687499999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="32">
+        <f>main!C31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1447,7 +1532,7 @@
         <v>67</v>
       </c>
       <c r="C2" s="1">
-        <f>main!C24</f>
+        <f>main!C27</f>
         <v>0.93</v>
       </c>
     </row>
@@ -1459,7 +1544,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="1">
-        <f>main!C25</f>
+        <f>main!C28</f>
         <v>0.03</v>
       </c>
     </row>
@@ -1497,7 +1582,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1556,11 +1641,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="5">
-        <f>-main!C26</f>
+        <f>-main!C29</f>
         <v>-6.7500000000000001E-5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1580,20 +1665,42 @@
         <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="5">
+        <f>main!C30</f>
+        <v>6.7628632499999994E-2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="5">
-        <f>main!C27</f>
-        <v>6.7628632499999994E-2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="47">
+        <f>main!C33</f>
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1607,13 +1714,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D6 B4:B6" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B6 D5:D6" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"commodity,activities"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Percentage, Absolute"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 B2:B3" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 B2:B4" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Commodities,Activities"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1626,13 +1733,13 @@
           <x14:formula1>
             <xm:f>Indeces!$A$2:$A$72</xm:f>
           </x14:formula1>
-          <xm:sqref>C3 E2</xm:sqref>
+          <xm:sqref>C3:C4 E2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Indeces!$B$2:$B$55</xm:f>
           </x14:formula1>
-          <xm:sqref>E3 C2</xm:sqref>
+          <xm:sqref>E3:E4 C2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1675,7 +1782,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1692,14 +1799,14 @@
         <v>92</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="2">
+        <f>main!C32</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="F2" s="2">
-        <f>main!C28</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1746,6 +1853,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E76E84A-E0C6-4BC4-BC5B-81789F97B0E9}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1">
+        <f>main!C16</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D72"/>
   <sheetViews>
@@ -2402,12 +2536,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,7 +2566,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>176</v>
@@ -2445,7 +2579,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2459,10 +2593,12 @@
         <v>187</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="G2" s="46" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -2477,22 +2613,22 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="17" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="C4" s="24">
-        <v>450</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>187</v>
+      </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
@@ -2507,186 +2643,192 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="41"/>
+      <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C7" s="33">
         <v>8.3479305095333606E-2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="24" t="s">
-        <v>195</v>
-      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="17" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C8" s="24">
-        <v>42.037999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C9" s="24">
-        <v>0.65</v>
+        <v>42.037999999999997</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C10" s="24">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="D10" s="24"/>
-      <c r="E10" s="24" t="s">
-        <v>199</v>
-      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C11" s="24">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" s="24">
-        <v>0.8</v>
+        <v>45</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="24">
-        <v>0.109</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>226</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="17" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C14" s="24">
-        <v>-0.85</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+        <v>0.109</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>211</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="17" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="C15" s="24">
-        <v>10</v>
+        <v>-0.85</v>
       </c>
       <c r="D15" s="24"/>
-      <c r="E15" s="24" t="s">
-        <v>232</v>
-      </c>
+      <c r="E15" s="24"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="30" t="s">
-        <v>230</v>
+      <c r="A16" s="41"/>
+      <c r="B16" s="17" t="s">
+        <v>228</v>
       </c>
       <c r="C16" s="24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24" t="s">
+        <v>229</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="50">
+        <v>6</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C18" s="25">
         <v>0.3</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="42">
-        <v>0.02</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -2694,211 +2836,288 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="25">
+        <v>450</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B21" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="40">
-        <f>C8*1000*C9/C20/C10</f>
+      <c r="C21" s="34">
+        <f>C9*1000*C10/C22/C11</f>
         <v>30.740287500000001</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="40">
-        <f>C5/C4</f>
-        <v>1777.7777777777778</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="41">
-        <f>C18*C16/C20</f>
-        <v>6.7500000000000001E-5</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="32">
-        <f>C19*C7/C17</f>
-        <v>112.71438750000002</v>
+      <c r="A22" s="42"/>
+      <c r="B22" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="34">
+        <f>C5/C19</f>
+        <v>1777.7777777777778</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="27" t="s">
-        <v>205</v>
-      </c>
+      <c r="E22" s="27"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C23" s="32">
-        <f>C22*3600/1000*C16/C11/C12</f>
-        <v>67.628632499999995</v>
+      <c r="A23" s="42"/>
+      <c r="B23" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="35">
+        <f>C20*C17/C22</f>
+        <v>6.7500000000000001E-5</v>
       </c>
       <c r="D23" s="27"/>
-      <c r="E23" s="27" t="s">
-        <v>187</v>
-      </c>
+      <c r="E23" s="27"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="31">
+        <f>C21*C8/C18</f>
+        <v>112.71438750000002</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="31">
+        <f>C24*C6*C17</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="31">
+        <f>C24*3600/1000*C17/C12/C13</f>
+        <v>67.628632499999995</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="26">
-        <f>C16*C2/1000</f>
+      <c r="C27" s="26">
+        <f>C17*C2/1000</f>
         <v>0.93</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="26">
-        <f>C16*C3/1000</f>
-        <v>0.03</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="44">
-        <f>C21</f>
-        <v>6.7500000000000001E-5</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="31">
-        <f>C23/1000</f>
-        <v>6.7628632499999994E-2</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26" t="s">
         <v>216</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="31">
-        <f>C24/C15</f>
-        <v>9.2999999999999999E-2</v>
+        <v>184</v>
+      </c>
+      <c r="C28" s="26">
+        <f>C17*C3/1000</f>
+        <v>0.03</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26" t="s">
         <v>216</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="43">
-        <f>C14*C16/C20</f>
-        <v>-2.8687499999999998E-3</v>
+        <v>185</v>
+      </c>
+      <c r="C29" s="38">
+        <f>C23</f>
+        <v>6.7500000000000001E-5</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="30">
+        <f>C26/1000</f>
+        <v>6.7628632499999994E-2</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="C31" s="30">
+        <f>C25/(10^6)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="G29" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
-        <v>218</v>
-      </c>
+      <c r="A32" s="39"/>
+      <c r="B32" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="30">
+        <f>C27/C16</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="30">
+        <f>C4*C17/1000</f>
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
+      <c r="B34" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="37">
+        <f>C15*C17/C22</f>
+        <v>-2.8687499999999998E-3</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A17:A18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{FBE3E71B-BF33-4A9D-A0E0-306A6497F0D1}"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://www.cal-ea.com/mini_eco_pulper.html &amp;https://italian.alibaba.com/product-detail/mini-eco-pulper-for-coffee-135021838.html" xr:uid="{8B9E813A-EEDE-4ECD-AAC6-FDCD5E778D6D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/CVX_Kenya/Interventions/Pulping_machines.xlsx
+++ b/CVX_Kenya/Interventions/Pulping_machines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79CE8FF-922B-44B7-BA1C-E6F7A6416A9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EC333-3DC0-4E8A-B59E-01419E171AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="-7875" windowWidth="13830" windowHeight="7170" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -1071,21 +1071,6 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1100,6 +1085,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1694,7 +1694,7 @@
       <c r="F4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="42">
         <f>main!C33</f>
         <v>0.03</v>
       </c>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2541,7 +2541,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="50" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2593,12 +2593,12 @@
         <v>187</v>
       </c>
       <c r="F2" s="18"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="41" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
         <v>242</v>
       </c>
@@ -2628,7 +2628,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
@@ -2643,11 +2643,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="40">
         <v>0</v>
       </c>
       <c r="D6" s="24"/>
@@ -2655,12 +2655,12 @@
         <v>237</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="41" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
       </c>
@@ -2761,7 +2761,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
         <v>228</v>
       </c>
@@ -2806,22 +2806,22 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="45">
         <v>6</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="49" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2836,7 +2836,7 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="16" t="s">
         <v>225</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="48" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -2882,7 +2882,7 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="29" t="s">
         <v>226</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="22" t="s">
         <v>235</v>
       </c>
@@ -2942,7 +2942,7 @@
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
       </c>
@@ -2958,7 +2958,7 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="47" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -2978,7 +2978,7 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="19" t="s">
         <v>234</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="19" t="s">
         <v>230</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="19" t="s">
         <v>243</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
       </c>

--- a/CVX_Kenya/Interventions/Pulping_machines.xlsx
+++ b/CVX_Kenya/Interventions/Pulping_machines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Interventions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8EC333-3DC0-4E8A-B59E-01419E171AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF41EA9-D929-499C-96B0-BF3FF056DDA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="245">
   <si>
     <t>level_row</t>
   </si>
@@ -1422,16 +1422,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>-2.8687499999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1481,13 +1481,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1508,15 +1508,15 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1548,16 +1548,16 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1585,20 +1585,20 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1702,12 +1702,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1755,17 +1755,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1809,16 +1809,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1854,22 +1854,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E76E84A-E0C6-4BC4-BC5B-81789F97B0E9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>233</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <f>main!C16</f>
         <v>10</v>
       </c>
@@ -1887,14 +1892,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +1911,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1928,7 +1933,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1950,7 +1955,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1961,7 +1966,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1972,7 +1977,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2005,7 +2010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2021,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2027,7 +2032,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2038,7 +2043,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2115,7 +2120,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2126,7 +2131,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2137,7 +2142,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2192,7 +2197,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2203,7 +2208,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2225,7 +2230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2296,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2310,7 +2315,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2318,7 +2323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2350,7 +2355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2358,7 +2363,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2406,7 +2411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2414,7 +2419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2446,87 +2451,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2540,22 +2545,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>174</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>172</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
@@ -2612,7 +2617,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="51"/>
       <c r="B4" s="17" t="s">
         <v>242</v>
@@ -2627,7 +2632,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="51"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
@@ -2642,7 +2647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="B6" s="39" t="s">
         <v>236</v>
@@ -2659,7 +2664,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="51"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
@@ -2672,7 +2677,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="51"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
@@ -2687,7 +2692,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
@@ -2702,7 +2707,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="51"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
@@ -2715,7 +2720,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="51"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
@@ -2730,7 +2735,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="51"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
@@ -2745,7 +2750,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="51"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
@@ -2760,7 +2765,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="51"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
@@ -2777,7 +2782,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
@@ -2790,7 +2795,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="17" t="s">
         <v>228</v>
@@ -2805,7 +2810,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>224</v>
       </c>
@@ -2820,7 +2825,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>180</v>
       </c>
@@ -2835,7 +2840,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
@@ -2850,7 +2855,7 @@
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="16" t="s">
         <v>225</v>
@@ -2863,7 +2868,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>181</v>
       </c>
@@ -2881,7 +2886,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="29" t="s">
         <v>226</v>
@@ -2895,7 +2900,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
@@ -2909,7 +2914,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
@@ -2925,7 +2930,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="22" t="s">
         <v>235</v>
@@ -2941,7 +2946,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
@@ -2957,7 +2962,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>182</v>
       </c>
@@ -2977,7 +2982,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
@@ -2995,7 +3000,7 @@
       </c>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
@@ -3013,7 +3018,7 @@
       </c>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="47"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
@@ -3031,7 +3036,7 @@
       </c>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="19" t="s">
         <v>234</v>
@@ -3049,7 +3054,7 @@
       </c>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="47"/>
       <c r="B32" s="19" t="s">
         <v>230</v>
@@ -3067,7 +3072,7 @@
       </c>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
       <c r="B33" s="19" t="s">
         <v>243</v>
@@ -3085,7 +3090,7 @@
       </c>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="47"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
@@ -3103,7 +3108,7 @@
       </c>
       <c r="G34" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
     </row>
   </sheetData>

--- a/CVX_Kenya/Interventions/Pulping_machines.xlsx
+++ b/CVX_Kenya/Interventions/Pulping_machines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF41EA9-D929-499C-96B0-BF3FF056DDA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2018B-949F-4582-972F-0A32D24840B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="251">
   <si>
     <t>level_row</t>
   </si>
@@ -707,9 +707,6 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>400-500</t>
-  </si>
-  <si>
     <t>0.107-0.112</t>
   </si>
   <si>
@@ -774,15 +771,37 @@
   </si>
   <si>
     <t>z</t>
+  </si>
+  <si>
+    <t>Sensistivity</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>300-600,50</t>
+  </si>
+  <si>
+    <t>0%-5%,1%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -993,7 +1012,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1085,6 +1104,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,6 +1120,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1450,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1468,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -1502,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,15 +1541,27 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1535,8 +1572,11 @@
         <f>main!C27</f>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1547,17 +1587,20 @@
         <f>main!C28</f>
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1579,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1638,14 @@
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1620,8 +1667,20 @@
       <c r="H1" s="4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1647,8 +1706,20 @@
       <c r="H2" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="7">
+        <v>-1.6875000000000001E-4</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>3.375E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1669,13 +1740,26 @@
       </c>
       <c r="G3" s="5">
         <f>main!C30</f>
-        <v>6.7628632499999994E-2</v>
+        <v>7.5744068399999998E-3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7.2362636774999994E-3</v>
+      </c>
+      <c r="K3" s="53">
+        <v>7.5744068399999998E-3</v>
+      </c>
+      <c r="L3" s="5">
+        <f>(K3-J3)/5</f>
+        <v>6.7628632500000072E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1701,13 +1785,19 @@
       <c r="H4" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1749,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1855,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1784,8 +1874,20 @@
       <c r="G1" s="4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1808,17 +1910,20 @@
       <c r="G2" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1856,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E76E84A-E0C6-4BC4-BC5B-81789F97B0E9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1977,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2">
         <f>main!C16</f>
@@ -2546,7 +2651,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,7 +2689,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2599,11 +2704,11 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="17" t="s">
         <v>173</v>
       </c>
@@ -2618,9 +2723,9 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" s="24">
         <v>5</v>
@@ -2633,7 +2738,7 @@
       <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="17" t="s">
         <v>189</v>
       </c>
@@ -2648,24 +2753,24 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="40">
         <v>0</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
@@ -2678,7 +2783,7 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="17" t="s">
         <v>194</v>
       </c>
@@ -2693,7 +2798,7 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="17" t="s">
         <v>198</v>
       </c>
@@ -2708,7 +2813,7 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="17" t="s">
         <v>201</v>
       </c>
@@ -2721,7 +2826,7 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="17" t="s">
         <v>200</v>
       </c>
@@ -2736,7 +2841,7 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="17" t="s">
         <v>207</v>
       </c>
@@ -2751,7 +2856,7 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="17" t="s">
         <v>209</v>
       </c>
@@ -2766,15 +2871,15 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="17" t="s">
         <v>210</v>
       </c>
       <c r="C14" s="24">
-        <v>0.109</v>
+        <v>0.112</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>211</v>
@@ -2783,7 +2888,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="17" t="s">
         <v>186</v>
       </c>
@@ -2796,26 +2901,26 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="24">
         <v>10</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="45">
         <v>6</v>
@@ -2826,7 +2931,7 @@
       <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="50" t="s">
         <v>180</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -2841,7 +2946,7 @@
       <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="16" t="s">
         <v>188</v>
       </c>
@@ -2849,27 +2954,29 @@
         <v>450</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C20" s="36">
         <v>0.02</v>
       </c>
-      <c r="D20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>250</v>
+      </c>
       <c r="E20" s="25"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>181</v>
       </c>
       <c r="B21" s="22" t="s">
@@ -2887,9 +2994,9 @@
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="34">
         <f>C5/C19</f>
@@ -2901,7 +3008,7 @@
       <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="29" t="s">
         <v>185</v>
       </c>
@@ -2915,7 +3022,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="22" t="s">
         <v>204</v>
       </c>
@@ -2931,9 +3038,9 @@
       <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C25" s="31">
         <f>C24*C6*C17</f>
@@ -2941,19 +3048,19 @@
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="B26" s="22" t="s">
         <v>206</v>
       </c>
       <c r="C26" s="31">
-        <f>C24*3600/1000*C17/C12/C13</f>
-        <v>67.628632499999995</v>
+        <f>C24*3600/1000*C17/C12/C13*C14</f>
+        <v>7.57440684</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="27" t="s">
@@ -2963,7 +3070,7 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -2983,7 +3090,7 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="19" t="s">
         <v>184</v>
       </c>
@@ -3001,7 +3108,7 @@
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="19" t="s">
         <v>185</v>
       </c>
@@ -3011,35 +3118,35 @@
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="19" t="s">
         <v>192</v>
       </c>
       <c r="C30" s="30">
         <f>C26/1000</f>
-        <v>6.7628632499999994E-2</v>
+        <v>7.5744068399999998E-3</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26" t="s">
         <v>216</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C31" s="30">
         <f>C25/(10^6)</f>
@@ -3055,9 +3162,9 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C32" s="30">
         <f>C27/C16</f>
@@ -3073,9 +3180,9 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="30">
         <f>C4*C17/1000</f>
@@ -3086,12 +3193,12 @@
         <v>216</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="19" t="s">
         <v>193</v>
       </c>
@@ -3101,7 +3208,7 @@
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>215</v>
